--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fxfd24\Desktop\mega_kill_last\mega_kill\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fxfd24\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A850AD25-B83A-43E4-ACE3-BDCB26000DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7527E-09A2-4A80-93FF-39FBDD827256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,16 +81,16 @@
     <t>6 минут назад</t>
   </si>
   <si>
-    <t>buy?</t>
-  </si>
-  <si>
-    <t>write?</t>
-  </si>
-  <si>
     <t>https://www.avito.ru/all/odezhda_obuv_aksessuary/muzhskaya_odezhda-ASgBAgICAUTeAtgL?s=104</t>
   </si>
   <si>
     <t>https://www.avito.ru/all/odezhda_obuv_aksessuary/obuv_zhenskaya-ASgBAgICAUTeAryp1gI?cd=1&amp;s=104</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -585,11 +585,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="11">
         <v>3</v>
       </c>
@@ -606,18 +614,18 @@
         <v>-1002094558537</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
       </c>
       <c r="C3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11">
         <v>4</v>
@@ -626,9 +634,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
@@ -643,19 +651,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
@@ -687,14 +687,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
@@ -824,14 +823,14 @@
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
@@ -874,24 +873,19 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{784D7042-18F7-4331-BE62-D29172EC63EA}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{C951E87A-A2F5-490E-B860-AD0F6E7EF87C}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{784D7042-18F7-4331-BE62-D29172EC63EA}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{C951E87A-A2F5-490E-B860-AD0F6E7EF87C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
